--- a/output/1Y_P8_KFSDIV.xlsx
+++ b/output/1Y_P8_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1060.5129</v>
+        <v>1058.3915</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D3" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E3" s="1">
-        <v>1060.5129</v>
+        <v>1058.3915</v>
       </c>
       <c r="F3" s="1">
-        <v>1041.2328</v>
+        <v>1039.1446</v>
       </c>
       <c r="H3" s="1">
-        <v>10185.0595</v>
+        <v>10144.4704</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10185.0595</v>
+        <v>10144.4704</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0185</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>10.3595</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E4" s="1">
-        <v>2101.7457</v>
+        <v>2097.536</v>
       </c>
       <c r="F4" s="1">
-        <v>965.2976</v>
+        <v>963.3633</v>
       </c>
       <c r="H4" s="1">
-        <v>21773.0344</v>
+        <v>21686.0055</v>
       </c>
       <c r="I4" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21773.0344</v>
+        <v>21686.0055</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.5159</v>
+        <v>9.535</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>10.0875</v>
       </c>
       <c r="C5" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D5" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E5" s="1">
-        <v>3067.0432</v>
+        <v>3060.8993</v>
       </c>
       <c r="F5" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="H5" s="1">
-        <v>30938.7986</v>
+        <v>30814.9918</v>
       </c>
       <c r="I5" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30938.7986</v>
+        <v>30814.9918</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>9.7814</v>
+        <v>9.801</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0263</v>
+        <v>-0.0275</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>10.1692</v>
       </c>
       <c r="C6" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D6" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E6" s="1">
-        <v>4058.3691</v>
+        <v>4050.2441</v>
       </c>
       <c r="F6" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="H6" s="1">
-        <v>41270.3674</v>
+        <v>41105.5222</v>
       </c>
       <c r="I6" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41270.3674</v>
+        <v>41105.5222</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>9.856199999999999</v>
+        <v>9.8759</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>828.1017000000001</v>
+        <v>826.4428</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9171.898300000001</v>
+        <v>-9173.557199999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0081</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>11.0872</v>
       </c>
       <c r="C7" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D7" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E7" s="1">
-        <v>5041.7307</v>
+        <v>5031.6369</v>
       </c>
       <c r="F7" s="1">
-        <v>912.611</v>
+        <v>910.766</v>
       </c>
       <c r="H7" s="1">
-        <v>55898.6762</v>
+        <v>55675.062</v>
       </c>
       <c r="I7" s="1">
-        <v>828.1017000000001</v>
+        <v>826.4428</v>
       </c>
       <c r="J7" s="1">
-        <v>56726.7778</v>
+        <v>56501.5049</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>9.917199999999999</v>
+        <v>9.937099999999999</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10118.3002</v>
+        <v>-10118.0633</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1064</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>11.0976</v>
       </c>
       <c r="C8" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D8" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E8" s="1">
-        <v>5954.3416</v>
+        <v>5942.4028</v>
       </c>
       <c r="F8" s="1">
-        <v>911.7557</v>
+        <v>909.9141</v>
       </c>
       <c r="H8" s="1">
-        <v>66078.90150000001</v>
+        <v>65814.4883</v>
       </c>
       <c r="I8" s="1">
-        <v>709.8013999999999</v>
+        <v>708.3796</v>
       </c>
       <c r="J8" s="1">
-        <v>66788.70299999999</v>
+        <v>66522.86780000001</v>
       </c>
       <c r="K8" s="1">
-        <v>60118.3002</v>
+        <v>60118.0633</v>
       </c>
       <c r="L8" s="1">
-        <v>10.0965</v>
+        <v>10.1168</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10118.3002</v>
+        <v>-10118.0633</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0009</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>10.8505</v>
       </c>
       <c r="C9" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D9" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E9" s="1">
-        <v>6866.0973</v>
+        <v>6852.317</v>
       </c>
       <c r="F9" s="1">
-        <v>932.5193</v>
+        <v>930.6277</v>
       </c>
       <c r="H9" s="1">
-        <v>74500.5891</v>
+        <v>74202.37</v>
       </c>
       <c r="I9" s="1">
-        <v>591.5012</v>
+        <v>590.3163</v>
       </c>
       <c r="J9" s="1">
-        <v>75092.0903</v>
+        <v>74792.6863</v>
       </c>
       <c r="K9" s="1">
-        <v>70236.6005</v>
+        <v>70236.1265</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2295</v>
+        <v>10.25</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2679.4537</v>
+        <v>2674.0813</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7438.8465</v>
+        <v>-7443.982</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0221</v>
+        <v>-0.0226</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>11.8576</v>
       </c>
       <c r="C10" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D10" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E10" s="1">
-        <v>7798.6166</v>
+        <v>7782.9446</v>
       </c>
       <c r="F10" s="1">
-        <v>909.8101</v>
+        <v>907.8546</v>
       </c>
       <c r="H10" s="1">
-        <v>92472.87609999999</v>
+        <v>92102.5886</v>
       </c>
       <c r="I10" s="1">
-        <v>3152.6547</v>
+        <v>3146.3343</v>
       </c>
       <c r="J10" s="1">
-        <v>95625.53079999999</v>
+        <v>95248.92290000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80354.9007</v>
+        <v>80354.18979999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3037</v>
+        <v>10.3244</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10788.1637</v>
+        <v>-10786.5836</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1238</v>
+        <v>0.1233</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>12.5699</v>
       </c>
       <c r="C11" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D11" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E11" s="1">
-        <v>8708.426600000001</v>
+        <v>8690.799199999999</v>
       </c>
       <c r="F11" s="1">
-        <v>858.2537</v>
+        <v>856.4111</v>
       </c>
       <c r="H11" s="1">
-        <v>109464.0521</v>
+        <v>109024.3383</v>
       </c>
       <c r="I11" s="1">
-        <v>2364.491</v>
+        <v>2359.7507</v>
       </c>
       <c r="J11" s="1">
-        <v>111828.5431</v>
+        <v>111384.089</v>
       </c>
       <c r="K11" s="1">
-        <v>91143.0644</v>
+        <v>91140.77340000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.4661</v>
+        <v>10.487</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10788.1637</v>
+        <v>-10786.5836</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0587</v>
+        <v>0.0583</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>13.5994</v>
       </c>
       <c r="C12" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D12" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E12" s="1">
-        <v>9566.680399999999</v>
+        <v>9547.210300000001</v>
       </c>
       <c r="F12" s="1">
-        <v>793.2823</v>
+        <v>791.5829</v>
       </c>
       <c r="H12" s="1">
-        <v>130101.1132</v>
+        <v>129576.6483</v>
       </c>
       <c r="I12" s="1">
-        <v>1576.3273</v>
+        <v>1573.1672</v>
       </c>
       <c r="J12" s="1">
-        <v>131677.4406</v>
+        <v>131149.8154</v>
       </c>
       <c r="K12" s="1">
-        <v>101931.2281</v>
+        <v>101927.3569</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6548</v>
+        <v>10.6761</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3918.792</v>
+        <v>3910.8597</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6869.3717</v>
+        <v>-6875.7239</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0808</v>
+        <v>0.0805</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>14.6663</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E13" s="1">
-        <v>10359.9627</v>
+        <v>10338.7932</v>
       </c>
       <c r="F13" s="1">
-        <v>1002.772</v>
+        <v>1000.1186</v>
       </c>
       <c r="H13" s="1">
-        <v>151942.3211</v>
+        <v>151328.9168</v>
       </c>
       <c r="I13" s="1">
-        <v>4706.9557</v>
+        <v>4697.4432</v>
       </c>
       <c r="J13" s="1">
-        <v>156649.2768</v>
+        <v>156026.36</v>
       </c>
       <c r="K13" s="1">
-        <v>112719.3917</v>
+        <v>112713.9405</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8803</v>
+        <v>10.902</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-14706.9557</v>
+        <v>-14697.4432</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.1057</v>
+        <v>0.1054</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>14.701</v>
       </c>
       <c r="C14" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D14" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E14" s="1">
-        <v>11362.7348</v>
+        <v>11338.9119</v>
       </c>
       <c r="F14" s="1">
-        <v>-11362.7348</v>
+        <v>-11338.9119</v>
       </c>
       <c r="H14" s="1">
-        <v>167043.5637</v>
+        <v>166359.9794</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>167043.5637</v>
+        <v>166359.9794</v>
       </c>
       <c r="K14" s="1">
-        <v>127426.3474</v>
+        <v>127411.3837</v>
       </c>
       <c r="L14" s="1">
-        <v>11.2144</v>
+        <v>11.2366</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>167043.5637</v>
+        <v>166359.9794</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0024</v>
+        <v>0.002</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1060.5129</v>
+        <v>1058.3915</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D3" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E3" s="1">
-        <v>1060.5129</v>
+        <v>1058.3915</v>
       </c>
       <c r="F3" s="1">
-        <v>1021.9745</v>
+        <v>1028.2457</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10185.0595</v>
+        <v>10144.4704</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10185.0595</v>
+        <v>10144.4704</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9815.0427</v>
+        <v>-9895.117</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0185</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>10.3595</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E4" s="1">
-        <v>2082.4873</v>
+        <v>2086.6372</v>
       </c>
       <c r="F4" s="1">
-        <v>813.4053</v>
+        <v>815.0535</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>21573.5274</v>
+        <v>21573.3244</v>
       </c>
       <c r="I4" s="1">
-        <v>184.9573</v>
+        <v>104.883</v>
       </c>
       <c r="J4" s="1">
-        <v>21758.4847</v>
+        <v>21678.2074</v>
       </c>
       <c r="K4" s="1">
-        <v>19815.0427</v>
+        <v>19895.117</v>
       </c>
       <c r="L4" s="1">
-        <v>9.5151</v>
+        <v>9.5345</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8426.472599999999</v>
+        <v>-8460.5003</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0779</v>
+        <v>0.0761</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>10.0875</v>
       </c>
       <c r="C5" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D5" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E5" s="1">
-        <v>2895.8927</v>
+        <v>2901.6907</v>
       </c>
       <c r="F5" s="1">
-        <v>1069.4109</v>
+        <v>1071.5692</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29212.3172</v>
+        <v>29212.191</v>
       </c>
       <c r="I5" s="1">
-        <v>1758.4847</v>
+        <v>1644.3827</v>
       </c>
       <c r="J5" s="1">
-        <v>30970.8019</v>
+        <v>30856.5737</v>
       </c>
       <c r="K5" s="1">
-        <v>28241.5153</v>
+        <v>28355.6173</v>
       </c>
       <c r="L5" s="1">
-        <v>9.7523</v>
+        <v>9.7721</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10787.6828</v>
+        <v>-10831.1004</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0248</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>10.1692</v>
       </c>
       <c r="C6" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D6" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E6" s="1">
-        <v>3965.3036</v>
+        <v>3973.26</v>
       </c>
       <c r="F6" s="1">
-        <v>951.504</v>
+        <v>953.3823</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40323.9653</v>
+        <v>40324.218</v>
       </c>
       <c r="I6" s="1">
-        <v>970.8019</v>
+        <v>813.2823</v>
       </c>
       <c r="J6" s="1">
-        <v>41294.7672</v>
+        <v>41137.5003</v>
       </c>
       <c r="K6" s="1">
-        <v>39029.1981</v>
+        <v>39186.7177</v>
       </c>
       <c r="L6" s="1">
-        <v>9.842700000000001</v>
+        <v>9.8626</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>781.891</v>
+        <v>783.4565</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8894.143700000001</v>
+        <v>-8931.128199999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.007900000000000001</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>11.0872</v>
       </c>
       <c r="C7" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D7" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E7" s="1">
-        <v>4916.8076</v>
+        <v>4926.6423</v>
       </c>
       <c r="F7" s="1">
-        <v>494.8382</v>
+        <v>495.8611</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>54513.6294</v>
+        <v>54513.297</v>
       </c>
       <c r="I7" s="1">
-        <v>2076.6582</v>
+        <v>1882.1541</v>
       </c>
       <c r="J7" s="1">
-        <v>56590.2876</v>
+        <v>56395.4511</v>
       </c>
       <c r="K7" s="1">
-        <v>48705.2328</v>
+        <v>48901.3024</v>
       </c>
       <c r="L7" s="1">
-        <v>9.905900000000001</v>
+        <v>9.9259</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-5486.3706</v>
+        <v>-5508.7192</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1032</v>
+        <v>0.1028</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>11.0976</v>
       </c>
       <c r="C8" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D8" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E8" s="1">
-        <v>5411.6459</v>
+        <v>5422.5034</v>
       </c>
       <c r="F8" s="1">
-        <v>896.0243</v>
+        <v>897.8101</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60056.2811</v>
+        <v>60056.394</v>
       </c>
       <c r="I8" s="1">
-        <v>6590.2876</v>
+        <v>6373.4349</v>
       </c>
       <c r="J8" s="1">
-        <v>66646.5687</v>
+        <v>66429.82889999999</v>
       </c>
       <c r="K8" s="1">
-        <v>54191.6034</v>
+        <v>54410.0216</v>
       </c>
       <c r="L8" s="1">
-        <v>10.0139</v>
+        <v>10.0341</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9943.7189</v>
+        <v>-9983.468699999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0008</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>10.8505</v>
       </c>
       <c r="C9" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D9" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E9" s="1">
-        <v>6307.6701</v>
+        <v>6320.3135</v>
       </c>
       <c r="F9" s="1">
-        <v>1065.262</v>
+        <v>1067.3934</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>68441.3747</v>
+        <v>68441.41069999999</v>
       </c>
       <c r="I9" s="1">
-        <v>6646.5687</v>
+        <v>6389.9661</v>
       </c>
       <c r="J9" s="1">
-        <v>75087.94349999999</v>
+        <v>74831.3768</v>
       </c>
       <c r="K9" s="1">
-        <v>64135.3223</v>
+        <v>64393.4904</v>
       </c>
       <c r="L9" s="1">
-        <v>10.1678</v>
+        <v>10.1883</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2435.2406</v>
+        <v>2440.1265</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9123.384700000001</v>
+        <v>-9164.894399999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0203</v>
+        <v>-0.0209</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>11.8576</v>
       </c>
       <c r="C10" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D10" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E10" s="1">
-        <v>7372.9321</v>
+        <v>7387.7069</v>
       </c>
       <c r="F10" s="1">
-        <v>217.1367</v>
+        <v>217.5628</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>87425.27989999999</v>
+        <v>87425.3842</v>
       </c>
       <c r="I10" s="1">
-        <v>7523.1841</v>
+        <v>7225.0717</v>
       </c>
       <c r="J10" s="1">
-        <v>94948.46400000001</v>
+        <v>94650.4559</v>
       </c>
       <c r="K10" s="1">
-        <v>75693.9476</v>
+        <v>75998.5113</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2665</v>
+        <v>10.2872</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-2574.7201</v>
+        <v>-2584.9501</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1159</v>
+        <v>0.1157</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>12.5699</v>
       </c>
       <c r="C11" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D11" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E11" s="1">
-        <v>7590.0688</v>
+        <v>7605.2696</v>
       </c>
       <c r="F11" s="1">
-        <v>365.444</v>
+        <v>366.1608</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>95406.406</v>
+        <v>95406.58620000001</v>
       </c>
       <c r="I11" s="1">
-        <v>14948.464</v>
+        <v>14640.1217</v>
       </c>
       <c r="J11" s="1">
-        <v>110354.8701</v>
+        <v>110046.7078</v>
       </c>
       <c r="K11" s="1">
-        <v>78268.6676</v>
+        <v>78583.4613</v>
       </c>
       <c r="L11" s="1">
-        <v>10.312</v>
+        <v>10.3328</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-4593.594</v>
+        <v>-4611.8317</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0515</v>
+        <v>0.0516</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,46 +1980,46 @@
         <v>13.5994</v>
       </c>
       <c r="C12" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D12" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E12" s="1">
-        <v>7955.5128</v>
+        <v>7971.4304</v>
       </c>
       <c r="F12" s="1">
-        <v>133.0794</v>
+        <v>133.3721</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>108190.2004</v>
+        <v>108189.8476</v>
       </c>
       <c r="I12" s="1">
-        <v>20354.8701</v>
+        <v>20028.29</v>
       </c>
       <c r="J12" s="1">
-        <v>128545.0705</v>
+        <v>128218.1375</v>
       </c>
       <c r="K12" s="1">
-        <v>82862.2616</v>
+        <v>83195.2931</v>
       </c>
       <c r="L12" s="1">
-        <v>10.4157</v>
+        <v>10.4367</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3415.531</v>
+        <v>3422.3713</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>1605.7314</v>
+        <v>1604.9635</v>
       </c>
       <c r="Q12" s="3">
         <v>0.06809999999999999</v>
@@ -2033,34 +2033,34 @@
         <v>14.6663</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E13" s="1">
-        <v>8088.5921</v>
+        <v>8104.8025</v>
       </c>
       <c r="F13" s="1">
-        <v>93.4306</v>
+        <v>93.5988</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>118629.719</v>
+        <v>118629.9937</v>
       </c>
       <c r="I13" s="1">
-        <v>31960.6014</v>
+        <v>31633.2534</v>
       </c>
       <c r="J13" s="1">
-        <v>150590.3204</v>
+        <v>150263.2471</v>
       </c>
       <c r="K13" s="1">
-        <v>84672.0612</v>
+        <v>85012.7009</v>
       </c>
       <c r="L13" s="1">
-        <v>10.4681</v>
+        <v>10.4892</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-1370.281</v>
+        <v>-1375.5006</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.08690000000000001</v>
+        <v>0.0871</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>14.701</v>
       </c>
       <c r="C14" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D14" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E14" s="1">
-        <v>8182.0227</v>
+        <v>8198.4013</v>
       </c>
       <c r="F14" s="1">
-        <v>-8182.0227</v>
+        <v>-8198.4013</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>120283.9162</v>
+        <v>120283.6647</v>
       </c>
       <c r="I14" s="1">
-        <v>40590.3204</v>
+        <v>40257.7528</v>
       </c>
       <c r="J14" s="1">
-        <v>160874.2366</v>
+        <v>160541.4175</v>
       </c>
       <c r="K14" s="1">
-        <v>86042.3422</v>
+        <v>86388.2015</v>
       </c>
       <c r="L14" s="1">
-        <v>10.516</v>
+        <v>10.5372</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120283.9162</v>
+        <v>120283.6647</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0018</v>
+        <v>0.0017</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1060.5129</v>
+        <v>1058.3915</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D3" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E3" s="1">
-        <v>1060.5129</v>
+        <v>1058.3915</v>
       </c>
       <c r="F3" s="1">
-        <v>1027.1807</v>
+        <v>1033.4623</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10185.0595</v>
+        <v>10144.4704</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10185.0595</v>
+        <v>10144.4704</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9865.0432</v>
+        <v>-9945.3179</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0185</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>10.3595</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E4" s="1">
-        <v>2087.6935</v>
+        <v>2091.8538</v>
       </c>
       <c r="F4" s="1">
-        <v>822.7027</v>
+        <v>824.3696</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21627.4612</v>
+        <v>21627.2577</v>
       </c>
       <c r="I4" s="1">
-        <v>134.9568</v>
+        <v>54.6821</v>
       </c>
       <c r="J4" s="1">
-        <v>21762.418</v>
+        <v>21681.9399</v>
       </c>
       <c r="K4" s="1">
-        <v>19865.0432</v>
+        <v>19945.3179</v>
       </c>
       <c r="L4" s="1">
-        <v>9.5153</v>
+        <v>9.534800000000001</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8522.7888</v>
+        <v>-8557.203600000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0781</v>
+        <v>0.07630000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>10.0875</v>
       </c>
       <c r="C5" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D5" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E5" s="1">
-        <v>2910.3963</v>
+        <v>2916.2234</v>
       </c>
       <c r="F5" s="1">
-        <v>1084.7464</v>
+        <v>1086.9355</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29358.6222</v>
+        <v>29358.4954</v>
       </c>
       <c r="I5" s="1">
-        <v>1612.168</v>
+        <v>1497.4785</v>
       </c>
       <c r="J5" s="1">
-        <v>30970.7902</v>
+        <v>30855.9739</v>
       </c>
       <c r="K5" s="1">
-        <v>28387.832</v>
+        <v>28502.5215</v>
       </c>
       <c r="L5" s="1">
-        <v>9.7539</v>
+        <v>9.7738</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10942.379</v>
+        <v>-10986.4181</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0249</v>
+        <v>-0.0261</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>10.1692</v>
       </c>
       <c r="C6" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D6" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E6" s="1">
-        <v>3995.1426</v>
+        <v>4003.1589</v>
       </c>
       <c r="F6" s="1">
-        <v>971.0795000000001</v>
+        <v>972.9968</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>40627.4044</v>
+        <v>40627.659</v>
       </c>
       <c r="I6" s="1">
-        <v>669.789</v>
+        <v>511.0605</v>
       </c>
       <c r="J6" s="1">
-        <v>41297.1934</v>
+        <v>41138.7195</v>
       </c>
       <c r="K6" s="1">
-        <v>39330.211</v>
+        <v>39488.9395</v>
       </c>
       <c r="L6" s="1">
-        <v>9.8445</v>
+        <v>9.8644</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>785.807</v>
+        <v>787.3803</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9089.294900000001</v>
+        <v>-9127.0679</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.008</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>11.0872</v>
       </c>
       <c r="C7" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D7" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E7" s="1">
-        <v>4966.2221</v>
+        <v>4976.1557</v>
       </c>
       <c r="F7" s="1">
-        <v>513.522</v>
+        <v>514.5826</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>55061.4982</v>
+        <v>55061.1625</v>
       </c>
       <c r="I7" s="1">
-        <v>1580.4941</v>
+        <v>1383.9925</v>
       </c>
       <c r="J7" s="1">
-        <v>56641.9923</v>
+        <v>56445.155</v>
       </c>
       <c r="K7" s="1">
-        <v>49205.3129</v>
+        <v>49403.3878</v>
       </c>
       <c r="L7" s="1">
-        <v>9.907999999999999</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-5693.5206</v>
+        <v>-5716.7038</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1042</v>
+        <v>0.1038</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>11.0976</v>
       </c>
       <c r="C8" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D8" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E8" s="1">
-        <v>5479.7441</v>
+        <v>5490.7383</v>
       </c>
       <c r="F8" s="1">
-        <v>923.3335</v>
+        <v>925.1739</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>60812.0081</v>
+        <v>60812.1225</v>
       </c>
       <c r="I8" s="1">
-        <v>5886.9735</v>
+        <v>5667.2888</v>
       </c>
       <c r="J8" s="1">
-        <v>66698.9816</v>
+        <v>66479.4112</v>
       </c>
       <c r="K8" s="1">
-        <v>54898.8335</v>
+        <v>55120.0916</v>
       </c>
       <c r="L8" s="1">
-        <v>10.0185</v>
+        <v>10.0387</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10246.7858</v>
+        <v>-10287.7491</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0009</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>10.8505</v>
       </c>
       <c r="C9" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D9" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E9" s="1">
-        <v>6403.0776</v>
+        <v>6415.9122</v>
       </c>
       <c r="F9" s="1">
-        <v>1100.1792</v>
+        <v>1102.3805</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>69476.5934</v>
+        <v>69476.6299</v>
       </c>
       <c r="I9" s="1">
-        <v>5640.1878</v>
+        <v>5379.5396</v>
       </c>
       <c r="J9" s="1">
-        <v>75116.7812</v>
+        <v>74856.16959999999</v>
       </c>
       <c r="K9" s="1">
-        <v>65145.6192</v>
+        <v>65407.8407</v>
       </c>
       <c r="L9" s="1">
-        <v>10.1741</v>
+        <v>10.1946</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2465.8848</v>
+        <v>2470.8322</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9471.6096</v>
+        <v>-9514.579299999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0206</v>
+        <v>-0.0212</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>11.8576</v>
       </c>
       <c r="C10" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D10" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E10" s="1">
-        <v>7503.2568</v>
+        <v>7518.2927</v>
       </c>
       <c r="F10" s="1">
-        <v>240.3978</v>
+        <v>240.8703</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>88970.61780000001</v>
+        <v>88970.72380000001</v>
       </c>
       <c r="I10" s="1">
-        <v>6168.5782</v>
+        <v>5864.9604</v>
       </c>
       <c r="J10" s="1">
-        <v>95139.19590000001</v>
+        <v>94835.6842</v>
       </c>
       <c r="K10" s="1">
-        <v>77083.1137</v>
+        <v>77393.2522</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2733</v>
+        <v>10.294</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-2850.5405</v>
+        <v>-2861.8758</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1177</v>
+        <v>0.1176</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>12.5699</v>
       </c>
       <c r="C11" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D11" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E11" s="1">
-        <v>7743.6546</v>
+        <v>7759.1629</v>
       </c>
       <c r="F11" s="1">
-        <v>393.2649</v>
+        <v>394.0371</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>97336.96339999999</v>
+        <v>97337.14720000001</v>
       </c>
       <c r="I11" s="1">
-        <v>13318.0376</v>
+        <v>13003.0846</v>
       </c>
       <c r="J11" s="1">
-        <v>110655.0011</v>
+        <v>110340.2318</v>
       </c>
       <c r="K11" s="1">
-        <v>79933.6542</v>
+        <v>80255.128</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3225</v>
+        <v>10.3433</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-4943.3006</v>
+        <v>-4962.9369</v>
       </c>
       <c r="Q11" s="3">
         <v>0.0525</v>
@@ -2748,46 +2748,46 @@
         <v>13.5994</v>
       </c>
       <c r="C12" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D12" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E12" s="1">
-        <v>8136.9195</v>
+        <v>8153.2001</v>
       </c>
       <c r="F12" s="1">
-        <v>156.9512</v>
+        <v>157.2924</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>110657.2227</v>
+        <v>110656.8618</v>
       </c>
       <c r="I12" s="1">
-        <v>18374.737</v>
+        <v>18040.1476</v>
       </c>
       <c r="J12" s="1">
-        <v>129031.9597</v>
+        <v>128697.0095</v>
       </c>
       <c r="K12" s="1">
-        <v>84876.95480000001</v>
+        <v>85218.0649</v>
       </c>
       <c r="L12" s="1">
-        <v>10.4311</v>
+        <v>10.4521</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3484.6446</v>
+        <v>3491.6233</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>1350.2018</v>
+        <v>1348.263</v>
       </c>
       <c r="Q12" s="3">
         <v>0.0694</v>
@@ -2801,34 +2801,34 @@
         <v>14.6663</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E13" s="1">
-        <v>8293.870699999999</v>
+        <v>8310.492399999999</v>
       </c>
       <c r="F13" s="1">
-        <v>116.9503</v>
+        <v>117.1651</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>121640.3961</v>
+        <v>121640.6777</v>
       </c>
       <c r="I13" s="1">
-        <v>29724.9388</v>
+        <v>29388.4107</v>
       </c>
       <c r="J13" s="1">
-        <v>151365.3349</v>
+        <v>151029.0884</v>
       </c>
       <c r="K13" s="1">
-        <v>87011.3976</v>
+        <v>87361.4252</v>
       </c>
       <c r="L13" s="1">
-        <v>10.491</v>
+        <v>10.5122</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-1715.2277</v>
+        <v>-1721.8236</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0887</v>
+        <v>0.08890000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>14.701</v>
       </c>
       <c r="C14" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D14" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E14" s="1">
-        <v>8410.821</v>
+        <v>8427.6576</v>
       </c>
       <c r="F14" s="1">
-        <v>-8410.821</v>
+        <v>-8427.6576</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123647.4792</v>
+        <v>123647.2207</v>
       </c>
       <c r="I14" s="1">
-        <v>38009.7112</v>
+        <v>37666.5871</v>
       </c>
       <c r="J14" s="1">
-        <v>161657.1904</v>
+        <v>161313.8078</v>
       </c>
       <c r="K14" s="1">
-        <v>88726.62519999999</v>
+        <v>89083.2487</v>
       </c>
       <c r="L14" s="1">
-        <v>10.5491</v>
+        <v>10.5703</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123647.4792</v>
+        <v>123647.2207</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0018</v>
@@ -2992,16 +2992,16 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1060.5129</v>
+        <v>1058.3915</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D3" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E3" s="1">
-        <v>1060.5129</v>
+        <v>1058.3915</v>
       </c>
       <c r="F3" s="1">
-        <v>1032.3869</v>
+        <v>1038.6789</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10185.0595</v>
+        <v>10144.4704</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10185.0595</v>
+        <v>10144.4704</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9915.0437</v>
+        <v>-9995.518700000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0185</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>10.3595</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E4" s="1">
-        <v>2092.8998</v>
+        <v>2097.0704</v>
       </c>
       <c r="F4" s="1">
-        <v>832.0484</v>
+        <v>833.734</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21681.3951</v>
+        <v>21681.1911</v>
       </c>
       <c r="I4" s="1">
-        <v>84.9563</v>
+        <v>4.4813</v>
       </c>
       <c r="J4" s="1">
-        <v>21766.3513</v>
+        <v>21685.6723</v>
       </c>
       <c r="K4" s="1">
-        <v>19915.0437</v>
+        <v>19995.5187</v>
       </c>
       <c r="L4" s="1">
-        <v>9.515499999999999</v>
+        <v>9.535</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8619.6049</v>
+        <v>-8654.4089</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.07829999999999999</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>10.0875</v>
       </c>
       <c r="C5" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D5" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E5" s="1">
-        <v>2924.9481</v>
+        <v>2930.8043</v>
       </c>
       <c r="F5" s="1">
-        <v>1100.2326</v>
+        <v>1102.4528</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29505.4141</v>
+        <v>29505.2866</v>
       </c>
       <c r="I5" s="1">
-        <v>1465.3513</v>
+        <v>1350.0724</v>
       </c>
       <c r="J5" s="1">
-        <v>30970.7654</v>
+        <v>30855.359</v>
       </c>
       <c r="K5" s="1">
-        <v>28534.6487</v>
+        <v>28649.9276</v>
       </c>
       <c r="L5" s="1">
-        <v>9.755599999999999</v>
+        <v>9.775399999999999</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-11098.5959</v>
+        <v>-11143.2625</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.025</v>
+        <v>-0.0262</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>10.1692</v>
       </c>
       <c r="C6" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D6" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E6" s="1">
-        <v>4025.1807</v>
+        <v>4033.2572</v>
       </c>
       <c r="F6" s="1">
-        <v>990.9514</v>
+        <v>992.9082</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40932.8673</v>
+        <v>40933.1238</v>
       </c>
       <c r="I6" s="1">
-        <v>366.7554</v>
+        <v>206.8099</v>
       </c>
       <c r="J6" s="1">
-        <v>41299.6227</v>
+        <v>41139.9337</v>
       </c>
       <c r="K6" s="1">
-        <v>39633.2446</v>
+        <v>39793.1901</v>
       </c>
       <c r="L6" s="1">
-        <v>9.846299999999999</v>
+        <v>9.866300000000001</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>789.736</v>
+        <v>791.3172</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9287.4468</v>
+        <v>-9326.020500000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>11.0872</v>
       </c>
       <c r="C7" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D7" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E7" s="1">
-        <v>5016.1321</v>
+        <v>5026.1654</v>
       </c>
       <c r="F7" s="1">
-        <v>532.6224</v>
+        <v>533.7217000000001</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>55614.8593</v>
+        <v>55614.5202</v>
       </c>
       <c r="I7" s="1">
-        <v>1079.3086</v>
+        <v>880.7894</v>
       </c>
       <c r="J7" s="1">
-        <v>56694.1679</v>
+        <v>56495.3096</v>
       </c>
       <c r="K7" s="1">
-        <v>49710.4274</v>
+        <v>49910.5278</v>
       </c>
       <c r="L7" s="1">
-        <v>9.9101</v>
+        <v>9.930099999999999</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-5905.2913</v>
+        <v>-5929.3276</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1052</v>
+        <v>0.1047</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>11.0976</v>
       </c>
       <c r="C8" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D8" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E8" s="1">
-        <v>5548.7545</v>
+        <v>5559.8871</v>
       </c>
       <c r="F8" s="1">
-        <v>951.3313000000001</v>
+        <v>953.2278</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>61577.8576</v>
+        <v>61577.9734</v>
       </c>
       <c r="I8" s="1">
-        <v>5174.0173</v>
+        <v>4951.4618</v>
       </c>
       <c r="J8" s="1">
-        <v>66751.875</v>
+        <v>66529.43520000001</v>
       </c>
       <c r="K8" s="1">
-        <v>55615.7187</v>
+        <v>55839.8554</v>
       </c>
       <c r="L8" s="1">
-        <v>10.0231</v>
+        <v>10.0433</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10557.4945</v>
+        <v>-10599.702</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0009</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>10.8505</v>
       </c>
       <c r="C9" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D9" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E9" s="1">
-        <v>6500.0858</v>
+        <v>6513.1148</v>
       </c>
       <c r="F9" s="1">
-        <v>1136.125</v>
+        <v>1138.3983</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>70529.18090000001</v>
+        <v>70529.21799999999</v>
       </c>
       <c r="I9" s="1">
-        <v>4616.5228</v>
+        <v>4351.7598</v>
       </c>
       <c r="J9" s="1">
-        <v>75145.7038</v>
+        <v>74880.97779999999</v>
       </c>
       <c r="K9" s="1">
-        <v>66173.21309999999</v>
+        <v>66439.55740000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.1804</v>
+        <v>10.2009</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2496.9395</v>
+        <v>2501.9492</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9830.5852</v>
+        <v>-9875.058800000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0209</v>
+        <v>-0.0215</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>11.8576</v>
       </c>
       <c r="C10" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D10" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E10" s="1">
-        <v>7636.2108</v>
+        <v>7651.5132</v>
       </c>
       <c r="F10" s="1">
-        <v>264.6521</v>
+        <v>265.173</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>90547.1336</v>
+        <v>90547.2415</v>
       </c>
       <c r="I10" s="1">
-        <v>4785.9376</v>
+        <v>4476.701</v>
       </c>
       <c r="J10" s="1">
-        <v>95333.07120000001</v>
+        <v>95023.9425</v>
       </c>
       <c r="K10" s="1">
-        <v>78500.73789999999</v>
+        <v>78816.5653</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2801</v>
+        <v>10.3008</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-3138.1391</v>
+        <v>-3150.6269</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1196</v>
+        <v>0.1195</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>12.5699</v>
       </c>
       <c r="C11" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D11" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E11" s="1">
-        <v>7900.863</v>
+        <v>7916.6862</v>
       </c>
       <c r="F11" s="1">
-        <v>422.3636</v>
+        <v>423.1937</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>99313.05740000001</v>
+        <v>99313.24490000001</v>
       </c>
       <c r="I11" s="1">
-        <v>11647.7985</v>
+        <v>11326.0741</v>
       </c>
       <c r="J11" s="1">
-        <v>110960.8559</v>
+        <v>110639.319</v>
       </c>
       <c r="K11" s="1">
-        <v>81638.87699999999</v>
+        <v>81967.1922</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3329</v>
+        <v>10.3537</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-5309.068</v>
+        <v>-5330.1672</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0534</v>
+        <v>0.0535</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,46 +3516,46 @@
         <v>13.5994</v>
       </c>
       <c r="C12" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D12" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E12" s="1">
-        <v>8323.2266</v>
+        <v>8339.8799</v>
       </c>
       <c r="F12" s="1">
-        <v>182.1742</v>
+        <v>182.5665</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>113190.8871</v>
+        <v>113190.518</v>
       </c>
       <c r="I12" s="1">
-        <v>16338.7305</v>
+        <v>15995.907</v>
       </c>
       <c r="J12" s="1">
-        <v>129529.6176</v>
+        <v>129186.425</v>
       </c>
       <c r="K12" s="1">
-        <v>86947.94500000001</v>
+        <v>87297.3594</v>
       </c>
       <c r="L12" s="1">
-        <v>10.4464</v>
+        <v>10.4675</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3555.3883</v>
+        <v>3562.5088</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>1077.9288</v>
+        <v>1074.7485</v>
       </c>
       <c r="Q12" s="3">
         <v>0.0708</v>
@@ -3569,34 +3569,34 @@
         <v>14.6663</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E13" s="1">
-        <v>8505.4007</v>
+        <v>8522.446400000001</v>
       </c>
       <c r="F13" s="1">
-        <v>141.9766</v>
+        <v>142.2411</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>124742.7587</v>
+        <v>124743.0476</v>
       </c>
       <c r="I13" s="1">
-        <v>27416.6593</v>
+        <v>27070.6555</v>
       </c>
       <c r="J13" s="1">
-        <v>152159.418</v>
+        <v>151813.703</v>
       </c>
       <c r="K13" s="1">
-        <v>89425.40459999999</v>
+        <v>89785.1197</v>
       </c>
       <c r="L13" s="1">
-        <v>10.514</v>
+        <v>10.5351</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-2082.2714</v>
+        <v>-2090.3321</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0905</v>
+        <v>0.0907</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>14.701</v>
       </c>
       <c r="C14" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D14" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E14" s="1">
-        <v>8647.3773</v>
+        <v>8664.687400000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8647.3773</v>
+        <v>-8664.687400000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>127125.0941</v>
+        <v>127124.8283</v>
       </c>
       <c r="I14" s="1">
-        <v>35334.3879</v>
+        <v>34980.3234</v>
       </c>
       <c r="J14" s="1">
-        <v>162459.482</v>
+        <v>162105.1517</v>
       </c>
       <c r="K14" s="1">
-        <v>91507.67600000001</v>
+        <v>91875.4518</v>
       </c>
       <c r="L14" s="1">
-        <v>10.5821</v>
+        <v>10.6034</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127125.0941</v>
+        <v>127124.8283</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1060.5129</v>
+        <v>1058.3915</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D3" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E3" s="1">
-        <v>1060.5129</v>
+        <v>1058.3915</v>
       </c>
       <c r="F3" s="1">
-        <v>1037.5931</v>
+        <v>1039.1446</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10185.0595</v>
+        <v>10144.4704</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10185.0595</v>
+        <v>10144.4704</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9965.0443</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0185</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>10.3595</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E4" s="1">
-        <v>2098.106</v>
+        <v>2097.536</v>
       </c>
       <c r="F4" s="1">
-        <v>841.4423</v>
+        <v>847.8977</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21735.3289</v>
+        <v>21686.0055</v>
       </c>
       <c r="I4" s="1">
-        <v>34.9557</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21770.2846</v>
+        <v>21686.0055</v>
       </c>
       <c r="K4" s="1">
-        <v>19965.0443</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.515700000000001</v>
+        <v>9.535</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8716.9211</v>
+        <v>-8801.432199999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0785</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>10.0875</v>
       </c>
       <c r="C5" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D5" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E5" s="1">
-        <v>2939.5482</v>
+        <v>2945.4337</v>
       </c>
       <c r="F5" s="1">
-        <v>1115.8702</v>
+        <v>1107.9244</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29652.6929</v>
+        <v>29652.5647</v>
       </c>
       <c r="I5" s="1">
-        <v>1318.0346</v>
+        <v>1198.5678</v>
       </c>
       <c r="J5" s="1">
-        <v>30970.7275</v>
+        <v>30851.1325</v>
       </c>
       <c r="K5" s="1">
-        <v>28681.9654</v>
+        <v>28801.4322</v>
       </c>
       <c r="L5" s="1">
-        <v>9.757300000000001</v>
+        <v>9.7783</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-11256.3409</v>
+        <v>-11198.5678</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0252</v>
+        <v>-0.0263</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>10.1692</v>
       </c>
       <c r="C6" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D6" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E6" s="1">
-        <v>4055.4185</v>
+        <v>4053.3581</v>
       </c>
       <c r="F6" s="1">
-        <v>989.4281999999999</v>
+        <v>981.3928</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>41240.3614</v>
+        <v>41137.1264</v>
       </c>
       <c r="I6" s="1">
-        <v>61.6937</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>41302.0552</v>
+        <v>41137.1264</v>
       </c>
       <c r="K6" s="1">
-        <v>39938.3063</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>9.848100000000001</v>
+        <v>9.868399999999999</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>793.678</v>
+        <v>795.2671</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9268.0157</v>
+        <v>-9204.732900000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0081</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>11.0872</v>
       </c>
       <c r="C7" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D7" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E7" s="1">
-        <v>5044.8467</v>
+        <v>5034.7509</v>
       </c>
       <c r="F7" s="1">
-        <v>573.8405</v>
+        <v>595.2092</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>55933.2245</v>
+        <v>55709.519</v>
       </c>
       <c r="I7" s="1">
-        <v>793.678</v>
+        <v>795.2671</v>
       </c>
       <c r="J7" s="1">
-        <v>56726.9025</v>
+        <v>56504.7862</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>9.911099999999999</v>
+        <v>9.930999999999999</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-6362.2848</v>
+        <v>-6612.4175</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1057</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>11.0976</v>
       </c>
       <c r="C8" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D8" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E8" s="1">
-        <v>5618.6873</v>
+        <v>5629.9602</v>
       </c>
       <c r="F8" s="1">
-        <v>980.0316</v>
+        <v>981.9854</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>62353.9436</v>
+        <v>62354.0609</v>
       </c>
       <c r="I8" s="1">
-        <v>4431.3932</v>
+        <v>4182.8496</v>
       </c>
       <c r="J8" s="1">
-        <v>66785.3368</v>
+        <v>66536.91039999999</v>
       </c>
       <c r="K8" s="1">
-        <v>56362.2848</v>
+        <v>56612.4175</v>
       </c>
       <c r="L8" s="1">
-        <v>10.0312</v>
+        <v>10.0556</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10875.9983</v>
+        <v>-10919.4812</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0009</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>10.8505</v>
       </c>
       <c r="C9" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D9" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E9" s="1">
-        <v>6598.7188</v>
+        <v>6611.9456</v>
       </c>
       <c r="F9" s="1">
-        <v>1173.125</v>
+        <v>1175.4723</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>71599.3985</v>
+        <v>71599.4362</v>
       </c>
       <c r="I9" s="1">
-        <v>3555.3949</v>
+        <v>3263.3684</v>
       </c>
       <c r="J9" s="1">
-        <v>75154.7934</v>
+        <v>74862.8045</v>
       </c>
       <c r="K9" s="1">
-        <v>67238.2831</v>
+        <v>67531.89870000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.1896</v>
+        <v>10.2136</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2528.4093</v>
+        <v>2533.4821</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10200.5833</v>
+        <v>-10246.6059</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0212</v>
+        <v>-0.0219</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>11.8576</v>
       </c>
       <c r="C10" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D10" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E10" s="1">
-        <v>7771.8438</v>
+        <v>7787.4179</v>
       </c>
       <c r="F10" s="1">
-        <v>289.9324</v>
+        <v>290.5037</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>92155.4149</v>
+        <v>92155.5248</v>
       </c>
       <c r="I10" s="1">
-        <v>3354.8116</v>
+        <v>3016.7625</v>
       </c>
       <c r="J10" s="1">
-        <v>95510.22659999999</v>
+        <v>95172.2873</v>
       </c>
       <c r="K10" s="1">
-        <v>79967.2757</v>
+        <v>80311.98669999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2894</v>
+        <v>10.313</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-3437.902</v>
+        <v>-3451.5911</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1216</v>
+        <v>0.1215</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>12.5699</v>
       </c>
       <c r="C11" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D11" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E11" s="1">
-        <v>8061.7762</v>
+        <v>8077.9216</v>
       </c>
       <c r="F11" s="1">
-        <v>452.7877</v>
+        <v>453.6784</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>101335.7201</v>
+        <v>101335.9114</v>
       </c>
       <c r="I11" s="1">
-        <v>9916.909600000001</v>
+        <v>9565.171399999999</v>
       </c>
       <c r="J11" s="1">
-        <v>111252.6297</v>
+        <v>110901.0829</v>
       </c>
       <c r="K11" s="1">
-        <v>83405.1777</v>
+        <v>83763.57769999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3458</v>
+        <v>10.3694</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-5691.4966</v>
+        <v>-5714.1253</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0544</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,46 +4284,46 @@
         <v>13.5994</v>
       </c>
       <c r="C12" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D12" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E12" s="1">
-        <v>8514.563899999999</v>
+        <v>8531.6001</v>
       </c>
       <c r="F12" s="1">
-        <v>208.8081</v>
+        <v>209.2544</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>115792.9602</v>
+        <v>115792.5826</v>
       </c>
       <c r="I12" s="1">
-        <v>14225.413</v>
+        <v>13851.0461</v>
       </c>
       <c r="J12" s="1">
-        <v>130018.3732</v>
+        <v>129643.6288</v>
       </c>
       <c r="K12" s="1">
-        <v>89096.6743</v>
+        <v>89477.70299999999</v>
       </c>
       <c r="L12" s="1">
-        <v>10.464</v>
+        <v>10.4878</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3627.7993</v>
+        <v>3635.0647</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>788.1345</v>
+        <v>783.639</v>
       </c>
       <c r="Q12" s="3">
         <v>0.0723</v>
@@ -4337,34 +4337,34 @@
         <v>14.6663</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E13" s="1">
-        <v>8723.371999999999</v>
+        <v>8740.854499999999</v>
       </c>
       <c r="F13" s="1">
-        <v>168.5854</v>
+        <v>168.9026</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>127939.5905</v>
+        <v>127939.8868</v>
       </c>
       <c r="I13" s="1">
-        <v>25013.5476</v>
+        <v>24634.6851</v>
       </c>
       <c r="J13" s="1">
-        <v>152953.1381</v>
+        <v>152574.5719</v>
       </c>
       <c r="K13" s="1">
-        <v>91936.33900000001</v>
+        <v>92329.12880000001</v>
       </c>
       <c r="L13" s="1">
-        <v>10.5391</v>
+        <v>10.5629</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-2472.5238</v>
+        <v>-2482.1421</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0924</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>14.701</v>
       </c>
       <c r="C14" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D14" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E14" s="1">
-        <v>8891.957399999999</v>
+        <v>8909.757100000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8891.957399999999</v>
+        <v>-8909.757100000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>130720.6652</v>
+        <v>130720.3919</v>
       </c>
       <c r="I14" s="1">
-        <v>32541.0238</v>
+        <v>32152.543</v>
       </c>
       <c r="J14" s="1">
-        <v>163261.689</v>
+        <v>162872.9349</v>
       </c>
       <c r="K14" s="1">
-        <v>94408.8628</v>
+        <v>94811.2709</v>
       </c>
       <c r="L14" s="1">
-        <v>10.6173</v>
+        <v>10.6413</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130720.6652</v>
+        <v>130720.3919</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>11.2144</v>
+        <v>11.2366</v>
       </c>
       <c r="D3" s="1">
-        <v>10.516</v>
+        <v>10.5372</v>
       </c>
       <c r="E3" s="1">
-        <v>10.5491</v>
+        <v>10.5703</v>
       </c>
       <c r="F3" s="1">
-        <v>10.5821</v>
+        <v>10.6034</v>
       </c>
       <c r="G3" s="1">
-        <v>10.6173</v>
+        <v>10.6413</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.4636</v>
       </c>
       <c r="C4" s="3">
-        <v>0.5357</v>
+        <v>0.5234</v>
       </c>
       <c r="D4" s="3">
-        <v>0.4875</v>
+        <v>0.4782</v>
       </c>
       <c r="E4" s="3">
-        <v>0.4943</v>
+        <v>0.4849</v>
       </c>
       <c r="F4" s="3">
-        <v>0.5012</v>
+        <v>0.4917</v>
       </c>
       <c r="G4" s="3">
-        <v>0.5079</v>
+        <v>0.4979</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.152</v>
       </c>
       <c r="C5" s="3">
-        <v>0.178</v>
+        <v>0.1786</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1632</v>
+        <v>0.1642</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1654</v>
+        <v>0.1664</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1677</v>
+        <v>0.1687</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1699</v>
+        <v>0.1708</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>2.9154</v>
       </c>
       <c r="C6" s="4">
-        <v>2.8959</v>
+        <v>2.8167</v>
       </c>
       <c r="D6" s="4">
-        <v>2.862</v>
+        <v>2.7884</v>
       </c>
       <c r="E6" s="4">
-        <v>2.8649</v>
+        <v>2.7913</v>
       </c>
       <c r="F6" s="4">
-        <v>2.8677</v>
+        <v>2.794</v>
       </c>
       <c r="G6" s="4">
-        <v>2.8705</v>
+        <v>2.7959</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.8092</v>
+        <v>0.7965</v>
       </c>
       <c r="D7" s="3">
-        <v>0.82</v>
+        <v>0.8094</v>
       </c>
       <c r="E7" s="3">
-        <v>0.821</v>
+        <v>0.8103</v>
       </c>
       <c r="F7" s="3">
-        <v>0.822</v>
+        <v>0.8112</v>
       </c>
       <c r="G7" s="3">
-        <v>0.8227</v>
+        <v>0.8117</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>7426.3474</v>
+        <v>7411.3837</v>
       </c>
       <c r="D8" s="1">
-        <v>6632.6626</v>
+        <v>6645.9543</v>
       </c>
       <c r="E8" s="1">
-        <v>6736.3364</v>
+        <v>6749.8358</v>
       </c>
       <c r="F8" s="1">
-        <v>6842.0638</v>
+        <v>6855.7751</v>
       </c>
       <c r="G8" s="1">
-        <v>6949.8866</v>
+        <v>6963.8139</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P8_KFSDIV.xlsx
+++ b/output/1Y_P8_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>7909.0022</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.3039</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.8683</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.8208</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.7744</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.7278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
